--- a/DB설계/ERD-미완.xlsx
+++ b/DB설계/ERD-미완.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="287">
   <si>
     <t>회사명</t>
   </si>
@@ -773,6 +773,358 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>APPLI_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLI_STATUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*커뮤니티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시_아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESUME_BOOKMARK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*관심 구독자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_TITLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BOARD_CONTENT </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10, 2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_REGDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*기업복지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BENEFIT_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복지_이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BENEFIT_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BENEFITS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_SCORE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰_점수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*기업리뷰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEWS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구직자_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_HIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용 공고_조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력서_조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구직자_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESUME_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력서_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구직자_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL UNIQUE</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAREER_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*이력서_기술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력서_기술_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESUME_SKILL_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시/군/구_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시/군/구명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY_BRNUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_BIRTHDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10,)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY_ID</t>
+  </si>
+  <si>
+    <t>공고_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*복지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_BENEFITS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업복지_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_EMP_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_BENEFIT_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BENEFIT_ID</t>
+  </si>
+  <si>
+    <t>복지_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*고용형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*공고_고용형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_EMPLOYMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고용형태_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고용형태_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKMARK_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독자 북마크_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보드_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 북마크_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>*지원현황</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -781,367 +1133,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>APPLI_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPLI_STATUS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(30)</t>
+    <t>APPLI_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_IDX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DEFAULT '면접대기'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*커뮤니티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOARD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시_아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESUME_BOOKMARK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*관심 구독자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOARD_TITLE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 제목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BOARD_CONTENT </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(10, 2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOARD_REGDATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*기업복지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BENEFIT_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>복지_이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BENEFIT_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BENEFITS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVIEW_SCORE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰_점수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*기업리뷰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVIEWS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구직자_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST_HIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채용 공고_조회수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이력서_조회수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구직자_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(10)</t>
-  </si>
-  <si>
-    <t>NUMBER(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESUME_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이력서_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구직자_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL UNIQUE</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAREER_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*이력서_기술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이력서_기술_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESUME_SKILL_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시/군/구_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시/군/구명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMPANY_BRNUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_BIRTHDATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMPANY_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(10,)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMPANY_ID</t>
-  </si>
-  <si>
-    <t>공고_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*복지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST_BENEFITS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업복지_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST_EMP_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST_BENEFIT_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BENEFIT_ID</t>
-  </si>
-  <si>
-    <t>복지_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공고_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOREIGN KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*고용형태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*공고_고용형태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST_EMPLOYMENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고용형태_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고용형태_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPLI_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOKMARK_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOARD_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구독자 북마크_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMPANY_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVIEW_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보드_IDX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업 북마크_IDX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1472,7 +1476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1633,21 +1637,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1658,6 +1647,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,6 +1663,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2550,7 +2557,7 @@
   <sheetData>
     <row r="46" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2562,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q63"/>
+  <dimension ref="B3:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2588,34 +2595,34 @@
       <c r="B3" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="H3" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
       <c r="N3" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="O3" s="90" t="s">
+      <c r="O3" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="92"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="97"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D4" s="81" t="s">
         <v>144</v>
@@ -2624,25 +2631,25 @@
         <v>113</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I4" s="85" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J4" s="86" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>113</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O4" s="45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P4" s="46" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="26" t="s">
         <v>113</v>
@@ -2650,7 +2657,7 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C5" s="81" t="s">
         <v>60</v>
@@ -2661,17 +2668,17 @@
       <c r="E5" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" s="99" t="s">
-        <v>254</v>
+      <c r="H5" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="94" t="s">
+        <v>251</v>
       </c>
       <c r="J5" s="86" t="s">
         <v>114</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N5" s="42" t="s">
         <v>167</v>
@@ -2738,20 +2745,20 @@
         <v>124</v>
       </c>
       <c r="N7" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="O7" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="O7" s="95" t="s">
         <v>166</v>
       </c>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="92"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="97"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>120</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D8" s="81" t="s">
         <v>114</v>
@@ -2763,7 +2770,7 @@
         <v>128</v>
       </c>
       <c r="I8" s="86" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J8" s="86" t="s">
         <v>114</v>
@@ -2772,13 +2779,13 @@
         <v>136</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O8" s="45" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P8" s="46" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="26" t="s">
         <v>113</v>
@@ -2810,10 +2817,10 @@
         <v>124</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O9" s="83" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P9" s="79" t="s">
         <v>144</v>
@@ -2847,11 +2854,11 @@
       <c r="K10" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="N10" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="O10" s="96" t="s">
-        <v>225</v>
+      <c r="N10" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="O10" s="91" t="s">
+        <v>222</v>
       </c>
       <c r="P10" s="15" t="s">
         <v>144</v>
@@ -2882,11 +2889,11 @@
       <c r="B12" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
       <c r="H12" s="28" t="s">
         <v>131</v>
       </c>
@@ -2894,7 +2901,7 @@
         <v>133</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>145</v>
@@ -2902,10 +2909,10 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>144</v>
@@ -2916,35 +2923,35 @@
       <c r="N13" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="O13" s="90" t="s">
+      <c r="O13" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D14" s="79" t="s">
         <v>144</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="100" t="s">
+      <c r="I14" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="J14" s="101"/>
-      <c r="K14" s="102"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
       <c r="N14" s="44" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O14" s="45" t="s">
         <v>175</v>
@@ -2970,13 +2977,13 @@
         <v>124</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>113</v>
@@ -2987,8 +2994,8 @@
       <c r="O15" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="P15" s="97" t="s">
-        <v>245</v>
+      <c r="P15" s="92" t="s">
+        <v>242</v>
       </c>
       <c r="Q15" s="30" t="s">
         <v>124</v>
@@ -3008,10 +3015,10 @@
         <v>124</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>144</v>
@@ -3022,10 +3029,10 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="89" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D17" s="88" t="s">
         <v>144</v>
@@ -3048,11 +3055,11 @@
       <c r="N17" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="O17" s="90" t="s">
+      <c r="O17" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="92"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
@@ -3080,7 +3087,7 @@
         <v>124</v>
       </c>
       <c r="N18" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O18" s="45" t="s">
         <v>176</v>
@@ -3104,10 +3111,10 @@
       </c>
       <c r="E19" s="16"/>
       <c r="H19" s="89" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I19" s="84" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J19" s="88" t="s">
         <v>144</v>
@@ -3116,7 +3123,7 @@
         <v>145</v>
       </c>
       <c r="N19" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O19" s="51" t="s">
         <v>182</v>
@@ -3142,7 +3149,7 @@
         <v>140</v>
       </c>
       <c r="N20" s="52" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O20" s="53" t="s">
         <v>175</v>
@@ -3158,11 +3165,11 @@
       <c r="B21" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
       <c r="H21" s="28" t="s">
         <v>138</v>
       </c>
@@ -3176,10 +3183,10 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="40" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D22" t="s">
         <v>144</v>
@@ -3190,10 +3197,10 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="37" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D23" t="s">
         <v>144</v>
@@ -3202,13 +3209,13 @@
         <v>179</v>
       </c>
       <c r="N23" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="O23" s="90" t="s">
-        <v>218</v>
-      </c>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="92"/>
+        <v>254</v>
+      </c>
+      <c r="O23" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="38" t="s">
@@ -3224,10 +3231,10 @@
         <v>124</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O24" s="45" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P24" s="46" t="s">
         <v>144</v>
@@ -3250,10 +3257,10 @@
         <v>124</v>
       </c>
       <c r="N25" s="54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O25" s="55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P25" s="36" t="s">
         <v>114</v>
@@ -3286,20 +3293,20 @@
       </c>
       <c r="E27" s="43"/>
       <c r="N27" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="O27" s="90" t="s">
-        <v>258</v>
-      </c>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="92"/>
+        <v>211</v>
+      </c>
+      <c r="O27" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N28" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" s="45" t="s">
         <v>259</v>
-      </c>
-      <c r="O28" s="45" t="s">
-        <v>262</v>
       </c>
       <c r="P28" s="46" t="s">
         <v>144</v>
@@ -3310,27 +3317,27 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N29" s="87" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O29" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="P29" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q29" s="26" t="s">
         <v>263</v>
-      </c>
-      <c r="P29" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q29" s="26" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N30" s="52" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O30" s="53" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P30" s="36" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q30" s="43" t="s">
         <v>179</v>
@@ -3340,18 +3347,18 @@
       <c r="B32" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="91"/>
-      <c r="E32" s="92"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="44" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D33" s="46" t="s">
         <v>144</v>
@@ -3360,29 +3367,29 @@
         <v>113</v>
       </c>
       <c r="N33" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="O33" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="92"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
     </row>
     <row r="34" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B34" s="58" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E34" s="67" t="s">
         <v>179</v>
       </c>
       <c r="N34" s="78" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O34" s="45" t="s">
         <v>189</v>
@@ -3396,22 +3403,22 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="56" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>179</v>
       </c>
       <c r="N35" s="54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O35" s="55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P35" s="36" t="s">
         <v>114</v>
@@ -3420,28 +3427,28 @@
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N37" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="O37" s="90" t="s">
-        <v>269</v>
-      </c>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="92"/>
+        <v>265</v>
+      </c>
+      <c r="O37" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="97"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="90" t="s">
-        <v>206</v>
-      </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="92"/>
+        <v>204</v>
+      </c>
+      <c r="C38" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="96"/>
+      <c r="E38" s="97"/>
       <c r="N38" s="78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O38" s="45" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P38" s="46" t="s">
         <v>144</v>
@@ -3452,10 +3459,10 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="63" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D39" s="65" t="s">
         <v>144</v>
@@ -3464,24 +3471,24 @@
         <v>113</v>
       </c>
       <c r="N39" s="87" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O39" s="83" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P39" s="79" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q39" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="37" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D40" s="79" t="s">
         <v>144</v>
@@ -3490,13 +3497,13 @@
         <v>179</v>
       </c>
       <c r="N40" s="52" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O40" s="53" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P40" s="36" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q40" s="43" t="s">
         <v>179</v>
@@ -3504,13 +3511,13 @@
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="56" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>179</v>
@@ -3518,20 +3525,20 @@
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="92"/>
+        <v>281</v>
+      </c>
+      <c r="C44" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" s="96"/>
+      <c r="E44" s="97"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="63" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C45" s="64" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D45" s="65" t="s">
         <v>144</v>
@@ -3542,220 +3549,248 @@
     </row>
     <row r="46" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B46" s="58" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C46" s="61" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D46" s="68" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E46" s="67" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B47" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="C47" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="D47" s="68" t="s">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B47" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="67" t="s">
+      <c r="E47" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B48" s="60" t="s">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B48" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="86" t="s">
+        <v>272</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B49" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="E50" s="69"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D51" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" s="73" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="96"/>
+      <c r="E54" s="97"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B56" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="E56" s="67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="E57" s="67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B58" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="D58" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="E48" s="69"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="D49" s="72" t="s">
+      <c r="E58" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="E49" s="73" t="s">
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="48" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="C52" s="90" t="s">
-        <v>222</v>
-      </c>
-      <c r="D52" s="91"/>
-      <c r="E52" s="92"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C53" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="D53" s="65" t="s">
+      <c r="C60" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="96"/>
+      <c r="E60" s="97"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="D61" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="66" t="s">
+      <c r="E61" s="66" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B54" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="C54" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="D54" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="E54" s="67" t="s">
+    <row r="62" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B62" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="D62" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="E62" s="67" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="D55" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="E55" s="67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B56" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="E56" s="77" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="D58" s="91"/>
-      <c r="E58" s="92"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="63" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="D59" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" s="66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B60" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="C60" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="D60" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="E60" s="67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B61" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="C61" s="62" t="s">
+    <row r="63" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B63" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="69"/>
+    </row>
+    <row r="64" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B64" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D61" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="E61" s="69"/>
-    </row>
-    <row r="62" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B62" s="60" t="s">
+      <c r="D64" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="69"/>
+    </row>
+    <row r="65" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B65" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="C62" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E62" s="69"/>
-    </row>
-    <row r="63" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B63" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="D63" s="76" t="s">
+      <c r="D65" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="77" t="s">
+      <c r="E65" s="77" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="O23:Q23"/>
     <mergeCell ref="O27:Q27"/>
     <mergeCell ref="O33:Q33"/>
     <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C32:E32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
